--- a/data_excel/460.xlsx
+++ b/data_excel/460.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>昊澄</t>
   </si>
@@ -123,11 +123,7 @@
     <t>。</t>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>

--- a/data_excel/460.xlsx
+++ b/data_excel/460.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>昊澄</t>
   </si>
@@ -99,12 +99,6 @@
     <t>覺得</t>
   </si>
   <si>
-    <t>還</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>有點</t>
   </si>
   <si>
@@ -124,6 +118,10 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,13 +184,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -495,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -642,7 +680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -653,23 +691,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -677,10 +715,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -688,29 +726,29 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -718,69 +756,58 @@
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
+      <c r="C17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data_excel/460.xlsx
+++ b/data_excel/460.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>昊澄</t>
   </si>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>還是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +156,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,12 +236,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -536,7 +548,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,8 +577,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -574,8 +586,8 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -758,8 +770,8 @@
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
